--- a/Database and Profile/PC_IF_Map.xlsx
+++ b/Database and Profile/PC_IF_Map.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{532A9A79-D99E-41E8-9C44-21B2691A343E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="350">
   <si>
     <t>Bit</t>
     <phoneticPr fontId="1"/>
@@ -436,6 +435,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>降温中</t>
+    <rPh sb="0" eb="3">
+      <t>コウオンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>警報</t>
     <rPh sb="0" eb="2">
       <t>ケイホウ</t>
@@ -710,18 +716,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PTNx Data</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rxx000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rxx007</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名称(8文字)</t>
     <rPh sb="0" eb="2">
       <t>メイショウ</t>
@@ -732,42 +726,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rxx008</t>
-  </si>
-  <si>
-    <t>Rxx009</t>
-  </si>
-  <si>
-    <t>Rxx010</t>
-  </si>
-  <si>
-    <t>Rxx011</t>
-  </si>
-  <si>
-    <t>Rxx012</t>
-  </si>
-  <si>
-    <t>Rxx013</t>
-  </si>
-  <si>
-    <t>Rxx014</t>
-  </si>
-  <si>
-    <t>Rxx015</t>
-  </si>
-  <si>
-    <t>Rxx016</t>
-  </si>
-  <si>
-    <t>Rxx017</t>
-  </si>
-  <si>
-    <t>Rxx018</t>
-  </si>
-  <si>
-    <t>Rxx019</t>
-  </si>
-  <si>
     <t>実行STEP数</t>
     <rPh sb="0" eb="2">
       <t>ジッコウ</t>
@@ -812,78 +770,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rxｘ100</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>STEP1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rxｘ101</t>
-  </si>
-  <si>
-    <t>Rxｘ102</t>
-  </si>
-  <si>
-    <t>Rxｘ103</t>
-  </si>
-  <si>
-    <t>Rxｘ104</t>
-  </si>
-  <si>
-    <t>Rxｘ105</t>
-  </si>
-  <si>
-    <t>Rxｘ106</t>
-  </si>
-  <si>
-    <t>Rxｘ107</t>
-  </si>
-  <si>
-    <t>Rxｘ108</t>
-  </si>
-  <si>
-    <t>Rxｘ109</t>
-  </si>
-  <si>
-    <t>Rxｘ110</t>
-  </si>
-  <si>
-    <t>Rxｘ111</t>
-  </si>
-  <si>
-    <t>Rxｘ112</t>
-  </si>
-  <si>
-    <t>Rxｘ113</t>
-  </si>
-  <si>
-    <t>Rxｘ114</t>
-  </si>
-  <si>
-    <t>Rxｘ115</t>
-  </si>
-  <si>
-    <t>Rxｘ116</t>
-  </si>
-  <si>
-    <t>Rxｘ117</t>
-  </si>
-  <si>
-    <t>Rxｘ118</t>
-  </si>
-  <si>
-    <t>Rxｘ119</t>
-  </si>
-  <si>
-    <t>Rxｘ120</t>
-  </si>
-  <si>
-    <t>STEP2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SV値</t>
     <rPh sb="2" eb="3">
       <t>チ</t>
@@ -1025,16 +911,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｶｽｹｰﾄﾞ制御有</t>
-    <rPh sb="6" eb="8">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>STEP情報</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -1141,10 +1017,6 @@
     <t>R10049</t>
   </si>
   <si>
-    <t>PID No.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実行PTN　No.</t>
     <rPh sb="0" eb="2">
       <t>ジッコウ</t>
@@ -1172,116 +1044,313 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ONで装置側によるローカル運転停止します。またリモートに切り替えてから温度プログラム・PID・PTN No.等編集してください。こちらもローカルによる編集不可とします。</t>
-    <rPh sb="3" eb="6">
-      <t>ソウチガワ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ウンテン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="54" eb="55">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エッジ(PC側でRST)</t>
-    <rPh sb="6" eb="7">
-      <t>ガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>抵抗測定開始</t>
+    <t>PID(ﾏｯﾌﾙ) No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PID(ﾋｰﾀｰ) No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PTN1 Data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R00000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R00001</t>
+  </si>
+  <si>
+    <t>R00002</t>
+  </si>
+  <si>
+    <t>R00003</t>
+  </si>
+  <si>
+    <t>R00004</t>
+  </si>
+  <si>
+    <t>R00005</t>
+  </si>
+  <si>
+    <t>R00006</t>
+  </si>
+  <si>
+    <t>R00007</t>
+  </si>
+  <si>
+    <t>R00008</t>
+  </si>
+  <si>
+    <t>R00009</t>
+  </si>
+  <si>
+    <t>R00010</t>
+  </si>
+  <si>
+    <t>R00011</t>
+  </si>
+  <si>
+    <t>R00012</t>
+  </si>
+  <si>
+    <t>R00013</t>
+  </si>
+  <si>
+    <t>R00014</t>
+  </si>
+  <si>
+    <t>R00015</t>
+  </si>
+  <si>
+    <t>R00016</t>
+  </si>
+  <si>
+    <t>R00017</t>
+  </si>
+  <si>
+    <t>R00018</t>
+  </si>
+  <si>
+    <t>R00019</t>
+  </si>
+  <si>
+    <t>R0100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0101</t>
+  </si>
+  <si>
+    <t>R0102</t>
+  </si>
+  <si>
+    <t>R0103</t>
+  </si>
+  <si>
+    <t>R0104</t>
+  </si>
+  <si>
+    <t>R0105</t>
+  </si>
+  <si>
+    <t>R0106</t>
+  </si>
+  <si>
+    <t>R0107</t>
+  </si>
+  <si>
+    <t>R0108</t>
+  </si>
+  <si>
+    <t>R0109</t>
+  </si>
+  <si>
+    <t>R0110</t>
+  </si>
+  <si>
+    <t>R0111</t>
+  </si>
+  <si>
+    <t>R0112</t>
+  </si>
+  <si>
+    <t>R0113</t>
+  </si>
+  <si>
+    <t>R0114</t>
+  </si>
+  <si>
+    <t>R0115</t>
+  </si>
+  <si>
+    <t>R0116</t>
+  </si>
+  <si>
+    <t>R0117</t>
+  </si>
+  <si>
+    <t>R0118</t>
+  </si>
+  <si>
+    <t>R0119</t>
+  </si>
+  <si>
+    <t>R0120</t>
+  </si>
+  <si>
+    <t>R0140</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0160</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0180</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0220</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0240</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0260</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0280</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0320</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0340</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0360</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0380</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0400</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0420</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0440</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0460</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0480</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STEP情報だけ</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0499</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R0500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PTN2　STEP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PTN1　STEP1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PTN1　STEP2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PTN1　STEP3</t>
+  </si>
+  <si>
+    <t>PTN1　STEP4</t>
+  </si>
+  <si>
+    <t>PTN1　STEP5</t>
+  </si>
+  <si>
+    <t>PTN1　STEP6</t>
+  </si>
+  <si>
+    <t>PTN1　STEP7</t>
+  </si>
+  <si>
+    <t>PTN1　STEP8</t>
+  </si>
+  <si>
+    <t>PTN1　STEP9</t>
+  </si>
+  <si>
+    <t>PTN1　STEP10</t>
+  </si>
+  <si>
+    <t>PTN1　STEP11</t>
+  </si>
+  <si>
+    <t>PTN1　STEP12</t>
+  </si>
+  <si>
+    <t>PTN1　STEP13</t>
+  </si>
+  <si>
+    <t>PTN1　STEP14</t>
+  </si>
+  <si>
+    <t>PTN1　STEP15</t>
+  </si>
+  <si>
+    <t>PTN1　STEP16</t>
+  </si>
+  <si>
+    <t>PTN1　STEP17</t>
+  </si>
+  <si>
+    <t>PTN1　STEP18</t>
+  </si>
+  <si>
+    <t>PTN1　STEP19</t>
+  </si>
+  <si>
+    <t>PTN1　STEP20</t>
+  </si>
+  <si>
+    <t>実行STEP　No.</t>
     <rPh sb="0" eb="2">
-      <t>テイコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクテイ</t>
-    </rPh>
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STEP実行経過時間（H)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STEP実行経過時間（L)　sec 2WordData</t>
     <rPh sb="4" eb="6">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>抵抗測定完了</t>
-    <rPh sb="0" eb="2">
-      <t>テイコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RT測定</t>
-    <rPh sb="2" eb="4">
-      <t>ソクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ローカル時PLC側でも編集可</t>
-    <rPh sb="4" eb="5">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヘンシュウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>温度PV値</t>
-    <rPh sb="0" eb="2">
-      <t>オンド</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>測定終了</t>
-    <rPh sb="0" eb="4">
-      <t>ソクテイシュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>降温中ｰ&gt;測定終了</t>
-    <rPh sb="0" eb="3">
-      <t>コウオンチュウ</t>
-    </rPh>
-    <rPh sb="5" eb="9">
-      <t>ソクテイシュウリョウ</t>
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ケイカジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1289,7 +1358,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1422,23 +1491,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1474,23 +1526,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1666,18 +1701,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K166" sqref="K166"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="26" width="15.125" customWidth="1"/>
+    <col min="1" max="26" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -1696,7 +1729,7 @@
         <v>104</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1744,10 +1777,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E8" t="s">
-        <v>308</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1755,7 +1785,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1763,19 +1793,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>304</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
@@ -1802,88 +1829,82 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
-        <v>302</v>
-      </c>
-      <c r="D22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1935,57 +1956,57 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>103</v>
@@ -1994,270 +2015,264 @@
         <v>104</v>
       </c>
       <c r="D52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
         <v>111</v>
       </c>
-      <c r="E53" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" t="s">
-        <v>303</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
@@ -2270,22 +2285,19 @@
         <v>42</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C106" t="s">
         <v>82</v>
       </c>
-      <c r="D106" t="s">
-        <v>305</v>
-      </c>
       <c r="G106" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="H106" t="s">
+        <v>264</v>
+      </c>
+      <c r="I106" t="s">
         <v>197</v>
-      </c>
-      <c r="I106" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
@@ -2293,7 +2305,7 @@
         <v>43</v>
       </c>
       <c r="H107" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
@@ -2304,7 +2316,7 @@
         <v>83</v>
       </c>
       <c r="H108" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
@@ -2312,7 +2324,7 @@
         <v>45</v>
       </c>
       <c r="H109" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
@@ -2323,7 +2335,7 @@
         <v>84</v>
       </c>
       <c r="H110" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
@@ -2331,7 +2343,7 @@
         <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
@@ -2342,10 +2354,10 @@
         <v>85</v>
       </c>
       <c r="H112" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="I112" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.15">
@@ -2353,13 +2365,13 @@
         <v>49</v>
       </c>
       <c r="H113" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="I113" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="J113" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.15">
@@ -2370,13 +2382,13 @@
         <v>86</v>
       </c>
       <c r="H114" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="I114" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="J114" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.15">
@@ -2384,7 +2396,7 @@
         <v>51</v>
       </c>
       <c r="H115" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.15">
@@ -2395,7 +2407,7 @@
         <v>87</v>
       </c>
       <c r="H116" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.15">
@@ -2403,7 +2415,7 @@
         <v>53</v>
       </c>
       <c r="H117" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.15">
@@ -2414,7 +2426,7 @@
         <v>88</v>
       </c>
       <c r="H118" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.15">
@@ -2422,7 +2434,7 @@
         <v>55</v>
       </c>
       <c r="H119" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.15">
@@ -2433,16 +2445,7 @@
         <v>89</v>
       </c>
       <c r="H120" t="s">
-        <v>217</v>
-      </c>
-      <c r="I120" t="s">
-        <v>218</v>
-      </c>
-      <c r="J120" t="s">
-        <v>240</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.15">
@@ -2450,7 +2453,7 @@
         <v>57</v>
       </c>
       <c r="H121" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.15">
@@ -2461,13 +2464,7 @@
         <v>90</v>
       </c>
       <c r="H122" t="s">
-        <v>220</v>
-      </c>
-      <c r="J122" t="s">
-        <v>241</v>
-      </c>
-      <c r="K122" s="1" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.15">
@@ -2475,13 +2472,7 @@
         <v>59</v>
       </c>
       <c r="H123" t="s">
-        <v>221</v>
-      </c>
-      <c r="J123" t="s">
-        <v>242</v>
-      </c>
-      <c r="K123" s="1" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.15">
@@ -2492,13 +2483,7 @@
         <v>91</v>
       </c>
       <c r="H124" t="s">
-        <v>222</v>
-      </c>
-      <c r="J124" t="s">
-        <v>243</v>
-      </c>
-      <c r="K124" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.15">
@@ -2506,16 +2491,10 @@
         <v>61</v>
       </c>
       <c r="H125" t="s">
-        <v>223</v>
-      </c>
-      <c r="J125" t="s">
-        <v>244</v>
-      </c>
-      <c r="K125" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="L125" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.15">
@@ -2525,22 +2504,22 @@
       <c r="C126" t="s">
         <v>92</v>
       </c>
-      <c r="H126" t="s">
-        <v>224</v>
-      </c>
-      <c r="J126" t="s">
-        <v>296</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>260</v>
-      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>63</v>
       </c>
       <c r="H127" t="s">
-        <v>225</v>
+        <v>284</v>
+      </c>
+      <c r="I127" t="s">
+        <v>327</v>
+      </c>
+      <c r="J127" t="s">
+        <v>203</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.15">
@@ -2551,7 +2530,7 @@
         <v>93</v>
       </c>
       <c r="H128" t="s">
-        <v>226</v>
+        <v>285</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.15">
@@ -2559,7 +2538,13 @@
         <v>65</v>
       </c>
       <c r="H129" t="s">
-        <v>227</v>
+        <v>286</v>
+      </c>
+      <c r="J129" t="s">
+        <v>204</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.15">
@@ -2570,13 +2555,16 @@
         <v>94</v>
       </c>
       <c r="H130" t="s">
-        <v>228</v>
+        <v>287</v>
       </c>
       <c r="J130" t="s">
-        <v>266</v>
+        <v>205</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="L130" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.15">
@@ -2584,10 +2572,13 @@
         <v>67</v>
       </c>
       <c r="H131" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="J131" t="s">
-        <v>268</v>
+        <v>206</v>
+      </c>
+      <c r="K131" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.15">
@@ -2598,7 +2589,13 @@
         <v>95</v>
       </c>
       <c r="H132" t="s">
-        <v>230</v>
+        <v>289</v>
+      </c>
+      <c r="J132" t="s">
+        <v>207</v>
+      </c>
+      <c r="K132" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.15">
@@ -2606,7 +2603,13 @@
         <v>69</v>
       </c>
       <c r="H133" t="s">
-        <v>231</v>
+        <v>290</v>
+      </c>
+      <c r="J133" t="s">
+        <v>261</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.15">
@@ -2617,7 +2620,13 @@
         <v>96</v>
       </c>
       <c r="H134" t="s">
-        <v>232</v>
+        <v>291</v>
+      </c>
+      <c r="J134" t="s">
+        <v>262</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.15">
@@ -2625,7 +2634,7 @@
         <v>71</v>
       </c>
       <c r="H135" t="s">
-        <v>233</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.15">
@@ -2636,7 +2645,7 @@
         <v>97</v>
       </c>
       <c r="H136" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.15">
@@ -2644,7 +2653,10 @@
         <v>73</v>
       </c>
       <c r="H137" t="s">
-        <v>235</v>
+        <v>294</v>
+      </c>
+      <c r="J137" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.15">
@@ -2655,7 +2667,7 @@
         <v>98</v>
       </c>
       <c r="H138" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.15">
@@ -2663,13 +2675,10 @@
         <v>75</v>
       </c>
       <c r="H139" t="s">
-        <v>237</v>
-      </c>
-      <c r="J139" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L139" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.15">
@@ -2680,16 +2689,16 @@
         <v>99</v>
       </c>
       <c r="H140" t="s">
-        <v>238</v>
-      </c>
-      <c r="I140" t="s">
-        <v>239</v>
+        <v>297</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>77</v>
       </c>
+      <c r="H141" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
@@ -2698,11 +2707,17 @@
       <c r="C142" t="s">
         <v>100</v>
       </c>
+      <c r="H142" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>79</v>
       </c>
+      <c r="H143" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
@@ -2711,331 +2726,469 @@
       <c r="C144" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="H144" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="H145" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C146" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="D146" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+        <v>233</v>
+      </c>
+      <c r="H146" t="s">
+        <v>303</v>
+      </c>
+      <c r="J146" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C147" t="s">
+        <v>210</v>
+      </c>
+      <c r="D147" t="s">
+        <v>234</v>
+      </c>
+      <c r="H147" t="s">
+        <v>304</v>
+      </c>
+      <c r="I147" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>177</v>
+      </c>
+      <c r="C148" t="s">
+        <v>211</v>
+      </c>
+      <c r="D148" t="s">
+        <v>234</v>
+      </c>
+      <c r="H148" t="s">
+        <v>305</v>
+      </c>
+      <c r="I148" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>178</v>
+      </c>
+      <c r="C149" t="s">
+        <v>209</v>
+      </c>
+      <c r="H149" t="s">
+        <v>306</v>
+      </c>
+      <c r="I149" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>179</v>
+      </c>
+      <c r="C150" t="s">
+        <v>210</v>
+      </c>
+      <c r="H150" t="s">
+        <v>307</v>
+      </c>
+      <c r="I150" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>180</v>
+      </c>
+      <c r="C151" t="s">
+        <v>211</v>
+      </c>
+      <c r="H151" t="s">
+        <v>308</v>
+      </c>
+      <c r="I151" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>181</v>
+      </c>
+      <c r="C152" t="s">
+        <v>212</v>
+      </c>
+      <c r="H152" t="s">
+        <v>309</v>
+      </c>
+      <c r="I152" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>182</v>
+      </c>
+      <c r="C153" t="s">
+        <v>210</v>
+      </c>
+      <c r="H153" t="s">
+        <v>310</v>
+      </c>
+      <c r="I153" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>183</v>
+      </c>
+      <c r="C154" t="s">
+        <v>211</v>
+      </c>
+      <c r="H154" t="s">
+        <v>311</v>
+      </c>
+      <c r="I154" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" t="s">
+        <v>213</v>
+      </c>
+      <c r="H155" t="s">
+        <v>312</v>
+      </c>
+      <c r="I155" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>185</v>
+      </c>
+      <c r="C156" t="s">
+        <v>210</v>
+      </c>
+      <c r="H156" t="s">
+        <v>313</v>
+      </c>
+      <c r="I156" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" t="s">
+        <v>211</v>
+      </c>
+      <c r="H157" t="s">
+        <v>314</v>
+      </c>
+      <c r="I157" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>187</v>
+      </c>
+      <c r="C158" t="s">
+        <v>214</v>
+      </c>
+      <c r="H158" t="s">
+        <v>315</v>
+      </c>
+      <c r="I158" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>188</v>
+      </c>
+      <c r="C159" t="s">
+        <v>210</v>
+      </c>
+      <c r="H159" t="s">
+        <v>316</v>
+      </c>
+      <c r="I159" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" t="s">
+        <v>211</v>
+      </c>
+      <c r="H160" t="s">
+        <v>317</v>
+      </c>
+      <c r="I160" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>190</v>
+      </c>
+      <c r="H161" t="s">
+        <v>318</v>
+      </c>
+      <c r="I161" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>191</v>
+      </c>
+      <c r="H162" t="s">
+        <v>319</v>
+      </c>
+      <c r="I162" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>192</v>
+      </c>
+      <c r="H163" t="s">
+        <v>320</v>
+      </c>
+      <c r="I163" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>193</v>
+      </c>
+      <c r="H164" t="s">
+        <v>321</v>
+      </c>
+      <c r="I164" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>194</v>
+      </c>
+      <c r="H165" t="s">
+        <v>322</v>
+      </c>
+      <c r="I165" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>215</v>
+      </c>
+      <c r="C166" t="s">
+        <v>258</v>
+      </c>
+      <c r="H166" t="s">
+        <v>324</v>
+      </c>
+      <c r="J166" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167" t="s">
+        <v>347</v>
+      </c>
+      <c r="H167" t="s">
+        <v>325</v>
+      </c>
+      <c r="I167" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>217</v>
+      </c>
+      <c r="C168" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>218</v>
+      </c>
+      <c r="C169" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
         <v>247</v>
       </c>
-      <c r="D147" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>176</v>
-      </c>
-      <c r="C148" t="s">
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
         <v>248</v>
       </c>
-      <c r="D148" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
-        <v>177</v>
-      </c>
-      <c r="C149" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
-        <v>178</v>
-      </c>
-      <c r="C150" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
-        <v>179</v>
-      </c>
-      <c r="C151" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
-        <v>180</v>
-      </c>
-      <c r="C152" t="s">
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
-        <v>181</v>
-      </c>
-      <c r="C153" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
-        <v>182</v>
-      </c>
-      <c r="C154" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" t="s">
-        <v>183</v>
-      </c>
-      <c r="C155" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" t="s">
-        <v>184</v>
-      </c>
-      <c r="C156" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" t="s">
-        <v>185</v>
-      </c>
-      <c r="C157" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" t="s">
-        <v>186</v>
-      </c>
-      <c r="C158" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" t="s">
-        <v>187</v>
-      </c>
-      <c r="C159" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" t="s">
-        <v>188</v>
-      </c>
-      <c r="C160" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A161" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A162" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A163" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A164" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A165" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A166" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
         <v>252</v>
       </c>
-      <c r="C166" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A167" t="s">
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A168" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A169" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A170" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A171" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A172" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A173" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A174" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A175" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A176" t="s">
-        <v>276</v>
-      </c>
-      <c r="B176" t="s">
-        <v>102</v>
-      </c>
-      <c r="C176" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A177" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A178" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A179" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A180" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A181" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A182" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A183" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A184" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A185" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A186" t="s">
-        <v>286</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A187" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A188" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A189" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A190" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A191" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A192" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>256</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
-        <v>295</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>